--- a/teaching/traditional_assets/database/data/kuwait/kuwait_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/kuwait/kuwait_insurance_general.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0969</v>
+        <v>0.127</v>
       </c>
       <c r="E2">
-        <v>0.00192</v>
+        <v>0.014395</v>
       </c>
       <c r="G2">
-        <v>0.109125224120034</v>
+        <v>0.1266191929467616</v>
       </c>
       <c r="H2">
-        <v>0.109125224120034</v>
+        <v>0.1266191929467616</v>
       </c>
       <c r="I2">
-        <v>0.1215806360290648</v>
+        <v>0.1244972872160054</v>
       </c>
       <c r="J2">
-        <v>0.1186049000357124</v>
+        <v>0.1196481567873167</v>
       </c>
       <c r="K2">
-        <v>108.726</v>
+        <v>124.83</v>
       </c>
       <c r="L2">
-        <v>0.1026007360573747</v>
+        <v>0.105824008138352</v>
       </c>
       <c r="M2">
-        <v>58.415</v>
+        <v>59.03</v>
       </c>
       <c r="N2">
-        <v>0.06414789760934737</v>
+        <v>0.05188264660385319</v>
       </c>
       <c r="O2">
-        <v>0.5372679947758586</v>
+        <v>0.4728831210446207</v>
       </c>
       <c r="P2">
-        <v>58.3</v>
+        <v>59.03</v>
       </c>
       <c r="Q2">
-        <v>0.06402161141187969</v>
+        <v>0.05188264660385319</v>
       </c>
       <c r="R2">
-        <v>0.5362102900870077</v>
+        <v>0.4728831210446207</v>
       </c>
       <c r="S2">
-        <v>0.1149999999999984</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.001968672430026508</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>254.573</v>
+        <v>404.049</v>
       </c>
       <c r="V2">
-        <v>0.2795570099821003</v>
+        <v>0.3551267402615666</v>
       </c>
       <c r="W2">
-        <v>0.08898901717825965</v>
+        <v>0.1072152999130687</v>
       </c>
       <c r="X2">
-        <v>0.0496675184095178</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="Y2">
-        <v>0.03932149876874184</v>
+        <v>0.06221462050932799</v>
       </c>
       <c r="Z2">
-        <v>1.111759238082449</v>
+        <v>1.167080725062257</v>
       </c>
       <c r="AA2">
-        <v>0.1081952620155367</v>
+        <v>0.1110655771493076</v>
       </c>
       <c r="AB2">
-        <v>0.0496675184095178</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="AC2">
-        <v>0.05852774360601891</v>
+        <v>0.06606489774556697</v>
       </c>
       <c r="AD2">
-        <v>149</v>
+        <v>146.2</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>149</v>
+        <v>146.2</v>
       </c>
       <c r="AG2">
-        <v>-105.573</v>
+        <v>-257.849</v>
       </c>
       <c r="AH2">
-        <v>0.1406151203722054</v>
+        <v>0.1138664755911399</v>
       </c>
       <c r="AI2">
-        <v>0.1043782837127846</v>
+        <v>0.1001507055761063</v>
       </c>
       <c r="AJ2">
-        <v>-0.1311372983527875</v>
+        <v>-0.2930398642589989</v>
       </c>
       <c r="AK2">
-        <v>-0.09000815907554351</v>
+        <v>-0.2442327783729307</v>
       </c>
       <c r="AL2">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="AM2">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="AN2">
-        <v>1.080649840440963</v>
+        <v>0.9464620961999093</v>
       </c>
       <c r="AO2">
-        <v>12.15462264150943</v>
+        <v>14.8340404040404</v>
       </c>
       <c r="AP2">
-        <v>-0.7656875543951263</v>
+        <v>-1.669249692496925</v>
       </c>
       <c r="AQ2">
-        <v>12.15462264150943</v>
+        <v>14.8340404040404</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.113</v>
+        <v>0.127</v>
       </c>
       <c r="E3">
-        <v>0.008920000000000001</v>
+        <v>0.0213</v>
       </c>
       <c r="G3">
-        <v>0.08894117647058825</v>
+        <v>0.1036066459543428</v>
       </c>
       <c r="H3">
-        <v>0.08894117647058825</v>
+        <v>0.1036066459543428</v>
       </c>
       <c r="I3">
-        <v>0.08705882352941176</v>
+        <v>0.09253005538295286</v>
       </c>
       <c r="J3">
-        <v>0.07894945533769063</v>
+        <v>0.07704742424509382</v>
       </c>
       <c r="K3">
-        <v>39.5</v>
+        <v>51.2</v>
       </c>
       <c r="L3">
-        <v>0.06196078431372549</v>
+        <v>0.06916115088477645</v>
       </c>
       <c r="M3">
-        <v>21.2</v>
+        <v>23</v>
       </c>
       <c r="N3">
-        <v>0.0544008211444701</v>
+        <v>0.0432574760203122</v>
       </c>
       <c r="O3">
-        <v>0.5367088607594936</v>
+        <v>0.44921875</v>
       </c>
       <c r="P3">
-        <v>21.2</v>
+        <v>23</v>
       </c>
       <c r="Q3">
-        <v>0.0544008211444701</v>
+        <v>0.0432574760203122</v>
       </c>
       <c r="R3">
-        <v>0.5367088607594936</v>
+        <v>0.44921875</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>199.1</v>
+        <v>341</v>
       </c>
       <c r="V3">
-        <v>0.5109058249935848</v>
+        <v>0.6413391009968027</v>
       </c>
       <c r="W3">
-        <v>0.1508785332314744</v>
+        <v>0.1536614645858344</v>
       </c>
       <c r="X3">
-        <v>0.05956926643765593</v>
+        <v>0.05334471444136124</v>
       </c>
       <c r="Y3">
-        <v>0.09130926679381847</v>
+        <v>0.1003167501444731</v>
       </c>
       <c r="Z3">
-        <v>2.66402005850397</v>
+        <v>3.170449678800856</v>
       </c>
       <c r="AA3">
-        <v>0.2103229326275711</v>
+        <v>0.244274981450291</v>
       </c>
       <c r="AB3">
-        <v>0.05300215348737766</v>
+        <v>0.04847585350092396</v>
       </c>
       <c r="AC3">
-        <v>0.1573207791401935</v>
+        <v>0.195799127949367</v>
       </c>
       <c r="AD3">
-        <v>149</v>
+        <v>146.2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>149</v>
+        <v>146.2</v>
       </c>
       <c r="AG3">
-        <v>-50.09999999999999</v>
+        <v>-194.8</v>
       </c>
       <c r="AH3">
-        <v>0.2765917950621867</v>
+        <v>0.2156660274376751</v>
       </c>
       <c r="AI3">
-        <v>0.2649359886201992</v>
+        <v>0.2491903869098346</v>
       </c>
       <c r="AJ3">
-        <v>-0.1475265017667844</v>
+        <v>-0.5782131196200653</v>
       </c>
       <c r="AK3">
-        <v>-0.1379025598678778</v>
+        <v>-0.7928367928367929</v>
       </c>
       <c r="AL3">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="AM3">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="AN3">
-        <v>2.391653290529695</v>
+        <v>1.973009446693657</v>
       </c>
       <c r="AO3">
-        <v>5.235849056603774</v>
+        <v>6.919191919191919</v>
       </c>
       <c r="AP3">
-        <v>-0.8041733547351524</v>
+        <v>-2.628879892037787</v>
       </c>
       <c r="AQ3">
-        <v>5.235849056603774</v>
+        <v>6.919191919191919</v>
       </c>
     </row>
     <row r="4">
@@ -859,46 +859,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>-2e-05</v>
+        <v>0.00281</v>
       </c>
       <c r="E4">
-        <v>0.138</v>
+        <v>0.163</v>
       </c>
       <c r="G4">
-        <v>0.337719298245614</v>
+        <v>0.3566739606126915</v>
       </c>
       <c r="H4">
-        <v>0.337719298245614</v>
+        <v>0.3566739606126915</v>
       </c>
       <c r="I4">
-        <v>0.3662280701754386</v>
+        <v>0.4048140043763676</v>
       </c>
       <c r="J4">
-        <v>0.3628866539460433</v>
+        <v>0.4010313161387524</v>
       </c>
       <c r="K4">
-        <v>32.8</v>
+        <v>36.2</v>
       </c>
       <c r="L4">
-        <v>0.3596491228070175</v>
+        <v>0.3960612691466083</v>
       </c>
       <c r="M4">
-        <v>14.5</v>
+        <v>16.4</v>
       </c>
       <c r="N4">
-        <v>0.07206759443339961</v>
+        <v>0.07011543394613082</v>
       </c>
       <c r="O4">
-        <v>0.4420731707317074</v>
+        <v>0.4530386740331491</v>
       </c>
       <c r="P4">
-        <v>14.5</v>
+        <v>16.4</v>
       </c>
       <c r="Q4">
-        <v>0.07206759443339961</v>
+        <v>0.07011543394613082</v>
       </c>
       <c r="R4">
-        <v>0.4420731707317074</v>
+        <v>0.4530386740331491</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -907,31 +907,31 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>20.5</v>
+        <v>26.3</v>
       </c>
       <c r="V4">
-        <v>0.1018886679920477</v>
+        <v>0.1124412141941</v>
       </c>
       <c r="W4">
-        <v>0.1293375394321767</v>
+        <v>0.1114532019704434</v>
       </c>
       <c r="X4">
-        <v>0.0496675184095178</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="Y4">
-        <v>0.07967002102265885</v>
+        <v>0.06645252256670268</v>
       </c>
       <c r="Z4">
-        <v>0.3932729624838293</v>
+        <v>0.3003614853762734</v>
       </c>
       <c r="AA4">
-        <v>0.1427135094432046</v>
+        <v>0.1204543617978375</v>
       </c>
       <c r="AB4">
-        <v>0.0496675184095178</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="AC4">
-        <v>0.09304599103368683</v>
+        <v>0.07545368239409687</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-20.5</v>
+        <v>-26.3</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.1134477033757609</v>
+        <v>-0.1266859344894027</v>
       </c>
       <c r="AK4">
-        <v>-0.06736772921459086</v>
+        <v>-0.08900169204737733</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>-0.6047197640117994</v>
+        <v>-0.7013333333333334</v>
       </c>
     </row>
     <row r="5">
@@ -987,79 +987,79 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.265</v>
+        <v>0.251</v>
       </c>
       <c r="E5">
-        <v>0.00192</v>
+        <v>0.00749</v>
       </c>
       <c r="G5">
-        <v>0.0990602975724354</v>
+        <v>0.1298654056020371</v>
       </c>
       <c r="H5">
-        <v>0.0990602975724354</v>
+        <v>0.1298654056020371</v>
       </c>
       <c r="I5">
-        <v>0.1413469068128426</v>
+        <v>0.1280465623863223</v>
       </c>
       <c r="J5">
-        <v>0.1399251959425677</v>
+        <v>0.1267820229518106</v>
       </c>
       <c r="K5">
-        <v>31.6</v>
+        <v>37</v>
       </c>
       <c r="L5">
-        <v>0.1237274862960063</v>
+        <v>0.1345943979628956</v>
       </c>
       <c r="M5">
-        <v>22.715</v>
+        <v>16.1</v>
       </c>
       <c r="N5">
-        <v>0.08185585585585585</v>
+        <v>0.05048604578237693</v>
       </c>
       <c r="O5">
-        <v>0.7188291139240506</v>
+        <v>0.4351351351351352</v>
       </c>
       <c r="P5">
-        <v>22.6</v>
+        <v>16.1</v>
       </c>
       <c r="Q5">
-        <v>0.08144144144144144</v>
+        <v>0.05048604578237693</v>
       </c>
       <c r="R5">
-        <v>0.7151898734177216</v>
+        <v>0.4351351351351352</v>
       </c>
       <c r="S5">
-        <v>0.1149999999999984</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.00506273387629313</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>31.3</v>
+        <v>26.3</v>
       </c>
       <c r="V5">
-        <v>0.1127927927927928</v>
+        <v>0.08247099404201945</v>
       </c>
       <c r="W5">
-        <v>0.08898901717825965</v>
+        <v>0.1072152999130687</v>
       </c>
       <c r="X5">
-        <v>0.0496675184095178</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="Y5">
-        <v>0.03932149876874184</v>
+        <v>0.06221462050932799</v>
       </c>
       <c r="Z5">
-        <v>0.7732364517105661</v>
+        <v>0.8760356915232631</v>
       </c>
       <c r="AA5">
-        <v>0.1081952620155367</v>
+        <v>0.1110655771493076</v>
       </c>
       <c r="AB5">
-        <v>0.0496675184095178</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="AC5">
-        <v>0.05852774360601891</v>
+        <v>0.06606489774556697</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-31.3</v>
+        <v>-26.3</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1080,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.1271324126726239</v>
+        <v>-0.08988380041011622</v>
       </c>
       <c r="AK5">
-        <v>-0.0904101675332178</v>
+        <v>-0.07092772384034519</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>-0.845945945945946</v>
+        <v>-0.7285318559556787</v>
       </c>
     </row>
     <row r="6">
@@ -1115,76 +1115,79 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.0266</v>
+        <v>-0.0155</v>
       </c>
       <c r="E6">
-        <v>-0.0731</v>
+        <v>-0.0224</v>
       </c>
       <c r="G6">
-        <v>0.04573268921095008</v>
+        <v>0.07009646302250803</v>
       </c>
       <c r="H6">
-        <v>0.04573268921095008</v>
+        <v>0.07009646302250803</v>
       </c>
       <c r="I6">
-        <v>0.0644122383252818</v>
+        <v>0.09694533762057878</v>
       </c>
       <c r="J6">
-        <v>0.06376510602435023</v>
+        <v>0.09615008289790997</v>
       </c>
       <c r="K6">
-        <v>4.75</v>
+        <v>5.05</v>
       </c>
       <c r="L6">
-        <v>0.07648953301127213</v>
+        <v>0.08118971061093247</v>
       </c>
       <c r="M6">
-        <v>-0</v>
+        <v>3.53</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>0.07690631808278867</v>
       </c>
       <c r="O6">
-        <v>-0</v>
+        <v>0.699009900990099</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>3.53</v>
       </c>
       <c r="Q6">
-        <v>-0</v>
+        <v>0.07690631808278867</v>
       </c>
       <c r="R6">
-        <v>-0</v>
+        <v>0.699009900990099</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
       <c r="U6">
-        <v>3.64</v>
+        <v>10.4</v>
       </c>
       <c r="V6">
-        <v>0.1096385542168675</v>
+        <v>0.2265795206971678</v>
       </c>
       <c r="W6">
-        <v>0.04101899827288429</v>
+        <v>0.04066022544283414</v>
       </c>
       <c r="X6">
-        <v>0.0496675184095178</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="Y6">
-        <v>-0.008648520136633517</v>
+        <v>-0.004340453960906529</v>
       </c>
       <c r="Z6">
-        <v>0.5519509376944272</v>
+        <v>0.5159256801592568</v>
       </c>
       <c r="AA6">
-        <v>0.03519521006232468</v>
+        <v>0.04960629691647313</v>
       </c>
       <c r="AB6">
-        <v>0.0496675184095178</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="AC6">
-        <v>-0.01447230834719312</v>
+        <v>0.00460561751273246</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1196,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>-3.64</v>
+        <v>-10.4</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1205,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>-0.1231393775372124</v>
+        <v>-0.2929577464788732</v>
       </c>
       <c r="AK6">
-        <v>-0.03019243530192435</v>
+        <v>-0.09885931558935362</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1220,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>-0.7777777777777779</v>
+        <v>-1.536189069423929</v>
       </c>
     </row>
     <row r="7">
@@ -1240,10 +1243,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0969</v>
-      </c>
-      <c r="E7">
-        <v>-0.469</v>
+        <v>0.43</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1252,16 +1252,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-0.01192592592592593</v>
+        <v>0.01175925925925926</v>
       </c>
       <c r="J7">
-        <v>-0.01192592592592593</v>
+        <v>0.01175925925925926</v>
       </c>
       <c r="K7">
-        <v>0.076</v>
+        <v>-4.62</v>
       </c>
       <c r="L7">
-        <v>0.005629629629629629</v>
+        <v>-0.4277777777777778</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1270,7 +1270,7 @@
         <v>-0</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>-0</v>
@@ -1279,37 +1279,37 @@
         <v>-0</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.033</v>
+        <v>0.049</v>
       </c>
       <c r="V7">
-        <v>0.003654485049833887</v>
+        <v>0.006657608695652174</v>
       </c>
       <c r="W7">
-        <v>0.001938775510204081</v>
+        <v>-0.1196891191709845</v>
       </c>
       <c r="X7">
-        <v>0.0496675184095178</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="Y7">
-        <v>-0.04772874289931372</v>
+        <v>-0.1646897985747251</v>
       </c>
       <c r="Z7">
-        <v>0.3447043202941477</v>
+        <v>0.2800321518396557</v>
       </c>
       <c r="AA7">
-        <v>-0.00411091819017465</v>
+        <v>0.003292970674410766</v>
       </c>
       <c r="AB7">
-        <v>0.0496675184095178</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="AC7">
-        <v>-0.05377843659969245</v>
+        <v>-0.04170770872932991</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>-0.033</v>
+        <v>-0.049</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>-0.003667889296432144</v>
+        <v>-0.006702229517165915</v>
       </c>
       <c r="AK7">
-        <v>-0.0008556537972878368</v>
+        <v>-0.001271043552696428</v>
       </c>
       <c r="AL7">
         <v>0</v>
